--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4607B4A-1B33-42A0-82BC-A550F7823333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>BITS</t>
   </si>
@@ -97,13 +98,40 @@
   </si>
   <si>
     <t>BLE</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>SRC2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +172,22 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +248,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -365,105 +429,187 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,101 +887,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
         <v>17</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="5">
         <v>16</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="5">
         <v>15</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="5">
         <v>14</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="5">
         <v>13</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="5">
         <v>12</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="5">
         <v>11</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="5">
         <v>10</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="5">
         <v>9</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="5">
         <v>8</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="5">
         <v>7</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="6">
         <v>6</v>
       </c>
-      <c r="N1" s="14">
+      <c r="N1" s="5">
         <v>5</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="7">
         <v>4</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="5">
         <v>3</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="5">
         <v>2</v>
       </c>
-      <c r="R1" s="14">
-        <v>1</v>
-      </c>
-      <c r="S1" s="17">
+      <c r="R1" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="19"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -850,621 +999,712 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="9" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="10" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="9" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="10" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="9" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R28" s="11"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R29" s="11"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R30" s="11"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R31" s="11"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="36" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X38" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X39" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="23:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X40" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W41">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
+      <c r="X41">
         <v>16</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="23"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="23"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
-        <v>1</v>
-      </c>
-      <c r="D18" s="26">
-        <v>1</v>
-      </c>
-      <c r="E18" s="26">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N3:S3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:S4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N5:S5"/>
     <mergeCell ref="N6:S6"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N9:S9"/>
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="J11:S11"/>
     <mergeCell ref="J12:S12"/>
     <mergeCell ref="F13:S13"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N17:S17"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
